--- a/TestData/Litigation_Case_Upload_Format1.xlsx
+++ b/TestData/Litigation_Case_Upload_Format1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18144" windowHeight="7836" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18144" windowHeight="7836" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Court Cases" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Case Payments" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:H20"/>
+  <oleSize ref="C1:K22"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -293,7 +293,7 @@
     <t>Order as 121185</t>
   </si>
   <si>
-    <t>Order as 835</t>
+    <t>Order as 8315</t>
   </si>
 </sst>
 </file>
@@ -950,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1119,7 +1119,7 @@
         <v>71</v>
       </c>
       <c r="C2" s="9">
-        <v>12225</v>
+        <v>126225</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9" t="s">
@@ -1207,7 +1207,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="2" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27">
-        <v>12225</v>
+        <v>126225</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>80</v>
@@ -1283,7 +1283,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="2" spans="1:6" s="17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="15">
-        <v>12225</v>
+        <v>126225</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>50</v>
@@ -1347,8 +1347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1399,7 +1399,7 @@
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="19">
-        <v>12225</v>
+        <v>126225</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>82</v>
